--- a/TAV/Test_Application_Issue_Category.xlsx
+++ b/TAV/Test_Application_Issue_Category.xlsx
@@ -1820,7 +1820,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1830,7 +1830,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1859,6 +1859,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2293,7 +2299,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2425,18 +2431,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -2445,9 +2457,6 @@
     <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2475,27 +2484,30 @@
     <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2550,20 +2562,14 @@
     <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2903,10 +2909,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="92" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="90" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="97" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="92" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="92" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="90" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="90" width="7.147857142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="97" width="11.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="97" width="11.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
@@ -2989,3064 +2995,3064 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="88" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="89" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="89" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="90" width="80.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="91" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="92" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="92" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="92" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="90" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="47.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="91" width="80.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="92" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="90" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="90" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="90" width="10.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="2" width="113.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="54"/>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="30">
-      <c r="A3" s="56">
+      <c r="A3" s="57">
         <f>INDIRECT("Item!A3")</f>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="62"/>
+      <c r="H3" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="30">
-      <c r="A4" s="56">
+      <c r="A4" s="57">
         <f>INDIRECT("Item!A8")</f>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="62"/>
+      <c r="H4" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="30">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="62"/>
+      <c r="H5" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="30">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="69" t="s">
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="70" t="s">
         <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="30">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="62"/>
+      <c r="H8" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="30">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="69" t="s">
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="70" t="s">
         <v>138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="30">
-      <c r="A10" s="63">
+      <c r="A10" s="71">
         <f>HYPERLINK("[Test_Application_Issue_Category.xlsx]Item! A16", INDIRECT("Item! A16"))</f>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" s="62"/>
+      <c r="H10" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="30">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="62"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="30" customFormat="1" s="70">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72" t="s">
+      <c r="H11" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="63"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="30" customFormat="1" s="72">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="I12" s="73"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="75"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="30">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" s="69" t="s">
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="70" t="s">
         <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="30">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="69" t="s">
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="70" t="s">
         <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="30">
-      <c r="A15" s="75">
+      <c r="A15" s="77">
         <f>HYPERLINK("[Test_Application_Issue_Category.xlsx]Item! A49", INDIRECT("Item! A49"))</f>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="69" t="s">
+      <c r="H15" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="70" t="s">
         <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="30">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="62"/>
+      <c r="H16" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="30">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="80"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="82"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="30">
-      <c r="A18" s="75"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="69" t="s">
+      <c r="H18" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="70" t="s">
         <v>176</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="30">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I19" s="69"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="79"/>
+      <c r="B20" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="80"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="82"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="30">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="79"/>
+      <c r="B21" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="80"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="82"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="30">
-      <c r="A22" s="63">
+      <c r="A22" s="71">
         <f>HYPERLINK("[Test_Application_Issue_Category.xlsx]Item! A25", INDIRECT("Item! A25"))</f>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="62"/>
+      <c r="H22" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="30">
-      <c r="A23" s="81"/>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="62"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="30">
-      <c r="A24" s="81"/>
-      <c r="B24" s="57" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="62"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="30">
-      <c r="A25" s="81"/>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="61" t="s">
+      <c r="F25" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" s="62"/>
+      <c r="H25" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="30">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="79"/>
+      <c r="B26" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="80"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="82"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="30">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="69" t="s">
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="70" t="s">
         <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="30">
-      <c r="A28" s="64"/>
-      <c r="B28" s="65" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="69" t="s">
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="70" t="s">
         <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="30">
-      <c r="A29" s="81"/>
-      <c r="B29" s="57" t="s">
+      <c r="A29" s="83"/>
+      <c r="B29" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="62"/>
+      <c r="H29" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="30">
-      <c r="A30" s="64"/>
-      <c r="B30" s="65" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" s="69" t="s">
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="70" t="s">
         <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="30">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="69" t="s">
+      <c r="E31" s="68"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="70" t="s">
         <v>176</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="30">
-      <c r="A32" s="63">
+      <c r="A32" s="71">
         <f>HYPERLINK("[Test_Application_Issue_Category.xlsx]Item! A33", INDIRECT("Item! A33"))</f>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" s="62"/>
+      <c r="H32" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="30">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" s="69" t="s">
+      <c r="E33" s="68"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="70" t="s">
         <v>176</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="30">
-      <c r="A34" s="81"/>
-      <c r="B34" s="57" t="s">
+      <c r="A34" s="83"/>
+      <c r="B34" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="62"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="30">
-      <c r="A35" s="64"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="65"/>
+      <c r="B35" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="E35" s="67" t="s">
+      <c r="E35" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="H35" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I35" s="66" t="s">
+      <c r="H35" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="67" t="s">
         <v>234</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="30">
-      <c r="A36" s="77"/>
-      <c r="B36" s="78" t="s">
+      <c r="A36" s="79"/>
+      <c r="B36" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="I36" s="80"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="82"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="30">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78" t="s">
+      <c r="A37" s="79"/>
+      <c r="B37" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="80"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="82"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="30">
-      <c r="A38" s="77"/>
-      <c r="B38" s="78" t="s">
+      <c r="A38" s="79"/>
+      <c r="B38" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="E38" s="74"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79" t="s">
+      <c r="E38" s="76"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="H38" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="I38" s="80" t="s">
+      <c r="H38" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="82" t="s">
         <v>244</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="30">
-      <c r="A39" s="81"/>
-      <c r="B39" s="57" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I39" s="62"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="30">
-      <c r="A40" s="77"/>
-      <c r="B40" s="78" t="s">
+      <c r="A40" s="79"/>
+      <c r="B40" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="E40" s="74"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" s="80"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="82"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="30">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="D41" s="66" t="s">
+      <c r="D41" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="E41" s="67" t="s">
+      <c r="E41" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="68" t="s">
+      <c r="G41" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="H41" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I41" s="66" t="s">
+      <c r="H41" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="67" t="s">
         <v>255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="30">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78" t="s">
+      <c r="A42" s="79"/>
+      <c r="B42" s="80" t="s">
         <v>256</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="D42" s="73" t="s">
+      <c r="D42" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="E42" s="74" t="s">
+      <c r="E42" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="F42" s="79" t="s">
+      <c r="F42" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="79" t="s">
+      <c r="G42" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="H42" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" s="80" t="s">
+      <c r="H42" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="82" t="s">
         <v>260</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="30">
-      <c r="A43" s="81"/>
-      <c r="B43" s="57" t="s">
+      <c r="A43" s="83"/>
+      <c r="B43" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="62"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="30">
-      <c r="A44" s="81"/>
-      <c r="B44" s="57" t="s">
+      <c r="A44" s="83"/>
+      <c r="B44" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I44" s="62"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="30">
-      <c r="A45" s="81"/>
-      <c r="B45" s="57" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I45" s="62"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="30">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65" t="s">
+      <c r="A46" s="65"/>
+      <c r="B46" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="D46" s="66" t="s">
+      <c r="D46" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="67" t="s">
+      <c r="E46" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="68" t="s">
+      <c r="F46" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="68" t="s">
+      <c r="G46" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="H46" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I46" s="69" t="s">
+      <c r="H46" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="70" t="s">
         <v>273</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="30">
-      <c r="A47" s="81"/>
-      <c r="B47" s="57" t="s">
+      <c r="A47" s="83"/>
+      <c r="B47" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I47" s="62"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="30">
-      <c r="A48" s="81"/>
-      <c r="B48" s="57" t="s">
+      <c r="A48" s="83"/>
+      <c r="B48" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="E48" s="60"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I48" s="62"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="30">
-      <c r="A49" s="81"/>
-      <c r="B49" s="57" t="s">
+      <c r="A49" s="83"/>
+      <c r="B49" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="E49" s="60"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I49" s="62"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="30">
-      <c r="A50" s="77"/>
-      <c r="B50" s="78" t="s">
+      <c r="A50" s="79"/>
+      <c r="B50" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="D50" s="73" t="s">
+      <c r="D50" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="E50" s="74"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" s="80"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="82"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="30">
-      <c r="A51" s="77"/>
-      <c r="B51" s="78" t="s">
+      <c r="A51" s="79"/>
+      <c r="B51" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C51" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="D51" s="73" t="s">
+      <c r="D51" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="E51" s="74"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="I51" s="80"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" s="82"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="30">
-      <c r="A52" s="81"/>
-      <c r="B52" s="57" t="s">
+      <c r="A52" s="83"/>
+      <c r="B52" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="E52" s="60"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I52" s="62"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="30">
-      <c r="A53" s="81"/>
-      <c r="B53" s="57" t="s">
+      <c r="A53" s="83"/>
+      <c r="B53" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="F53" s="61" t="s">
+      <c r="F53" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="G53" s="61" t="s">
+      <c r="G53" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="H53" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" s="62"/>
+      <c r="H53" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="30">
-      <c r="A54" s="77"/>
-      <c r="B54" s="78" t="s">
+      <c r="A54" s="79"/>
+      <c r="B54" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="C54" s="80" t="s">
         <v>297</v>
       </c>
-      <c r="D54" s="73" t="s">
+      <c r="D54" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="E54" s="74"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="I54" s="80"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" s="82"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="30">
-      <c r="A55" s="81"/>
-      <c r="B55" s="57" t="s">
+      <c r="A55" s="83"/>
+      <c r="B55" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="C55" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="E55" s="60"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I55" s="62"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="30">
-      <c r="A56" s="81"/>
-      <c r="B56" s="57" t="s">
+      <c r="A56" s="83"/>
+      <c r="B56" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="E56" s="60"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I56" s="62"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I56" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="30">
-      <c r="A57" s="81"/>
-      <c r="B57" s="57" t="s">
+      <c r="A57" s="83"/>
+      <c r="B57" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="E57" s="60"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I57" s="62"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="30">
-      <c r="A58" s="82"/>
-      <c r="B58" s="83" t="s">
+      <c r="A58" s="84"/>
+      <c r="B58" s="85" t="s">
         <v>308</v>
       </c>
-      <c r="C58" s="83" t="s">
+      <c r="C58" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="D58" s="84" t="s">
+      <c r="D58" s="86" t="s">
         <v>310</v>
       </c>
-      <c r="E58" s="85"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="I58" s="87" t="s">
+      <c r="E58" s="87"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58" s="89" t="s">
         <v>311</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="30">
-      <c r="A59" s="82"/>
-      <c r="B59" s="83" t="s">
+      <c r="A59" s="84"/>
+      <c r="B59" s="85" t="s">
         <v>312</v>
       </c>
-      <c r="C59" s="83" t="s">
+      <c r="C59" s="85" t="s">
         <v>313</v>
       </c>
-      <c r="D59" s="84" t="s">
+      <c r="D59" s="86" t="s">
         <v>314</v>
       </c>
-      <c r="E59" s="85"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="I59" s="84" t="s">
+      <c r="E59" s="87"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="I59" s="86" t="s">
         <v>234</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="30">
-      <c r="A60" s="81"/>
-      <c r="B60" s="57" t="s">
+      <c r="A60" s="83"/>
+      <c r="B60" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="58" t="s">
         <v>316</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="E60" s="60"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I60" s="62"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="30">
-      <c r="A61" s="81"/>
-      <c r="B61" s="57" t="s">
+      <c r="A61" s="83"/>
+      <c r="B61" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="E61" s="60"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I61" s="62"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I61" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="30">
-      <c r="A62" s="81"/>
-      <c r="B62" s="57" t="s">
+      <c r="A62" s="83"/>
+      <c r="B62" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="C62" s="57" t="s">
+      <c r="C62" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="E62" s="60"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I62" s="62"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I62" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="30">
-      <c r="A63" s="81"/>
-      <c r="B63" s="57" t="s">
+      <c r="A63" s="83"/>
+      <c r="B63" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="E63" s="60"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61" t="s">
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="H63" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I63" s="62" t="s">
+      <c r="H63" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I63" s="63" t="s">
         <v>327</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="30">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65" t="s">
+      <c r="A64" s="65"/>
+      <c r="B64" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C64" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="D64" s="66" t="s">
+      <c r="D64" s="67" t="s">
         <v>330</v>
       </c>
-      <c r="E64" s="67"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68" t="s">
+      <c r="E64" s="68"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="H64" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I64" s="69" t="s">
+      <c r="H64" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I64" s="70" t="s">
         <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="30">
-      <c r="A65" s="81"/>
-      <c r="B65" s="57" t="s">
+      <c r="A65" s="83"/>
+      <c r="B65" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="E65" s="60"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I65" s="62"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I65" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="30">
-      <c r="A66" s="81"/>
-      <c r="B66" s="57" t="s">
+      <c r="A66" s="83"/>
+      <c r="B66" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="60" t="s">
         <v>337</v>
       </c>
-      <c r="E66" s="60"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I66" s="62"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I66" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="30">
-      <c r="A67" s="81"/>
-      <c r="B67" s="57" t="s">
+      <c r="A67" s="83"/>
+      <c r="B67" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="C67" s="57" t="s">
+      <c r="C67" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="E67" s="60"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I67" s="62"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I67" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="30">
-      <c r="A68" s="81"/>
-      <c r="B68" s="57" t="s">
+      <c r="A68" s="83"/>
+      <c r="B68" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="C68" s="57" t="s">
+      <c r="C68" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="D68" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="E68" s="60"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I68" s="62"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I68" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="30">
-      <c r="A69" s="81"/>
-      <c r="B69" s="57" t="s">
+      <c r="A69" s="83"/>
+      <c r="B69" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="C69" s="57" t="s">
+      <c r="C69" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="E69" s="60"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I69" s="62"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I69" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="30">
-      <c r="A70" s="81"/>
-      <c r="B70" s="57" t="s">
+      <c r="A70" s="83"/>
+      <c r="B70" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="57" t="s">
+      <c r="C70" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="60" t="s">
         <v>348</v>
       </c>
-      <c r="E70" s="60" t="s">
+      <c r="E70" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="F70" s="61" t="s">
+      <c r="F70" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="G70" s="61" t="s">
+      <c r="G70" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="H70" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I70" s="62"/>
+      <c r="H70" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I70" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="30">
-      <c r="A71" s="81"/>
-      <c r="B71" s="57" t="s">
+      <c r="A71" s="83"/>
+      <c r="B71" s="58" t="s">
         <v>350</v>
       </c>
-      <c r="C71" s="57" t="s">
+      <c r="C71" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="E71" s="60"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I71" s="62"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I71" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="30">
-      <c r="A72" s="81"/>
-      <c r="B72" s="57" t="s">
+      <c r="A72" s="83"/>
+      <c r="B72" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="C72" s="58" t="s">
         <v>354</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="E72" s="60"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I72" s="62"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="30">
-      <c r="A73" s="81"/>
-      <c r="B73" s="57" t="s">
+      <c r="A73" s="83"/>
+      <c r="B73" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="C73" s="57" t="s">
+      <c r="C73" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="E73" s="60"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I73" s="62"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I73" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="30">
-      <c r="A74" s="81"/>
-      <c r="B74" s="57" t="s">
+      <c r="A74" s="83"/>
+      <c r="B74" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="C74" s="57" t="s">
+      <c r="C74" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="D74" s="59" t="s">
+      <c r="D74" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="E74" s="60"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I74" s="62"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I74" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="30">
-      <c r="A75" s="82"/>
-      <c r="B75" s="83" t="s">
+      <c r="A75" s="84"/>
+      <c r="B75" s="85" t="s">
         <v>361</v>
       </c>
-      <c r="C75" s="83" t="s">
+      <c r="C75" s="85" t="s">
         <v>362</v>
       </c>
-      <c r="D75" s="84" t="s">
+      <c r="D75" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="E75" s="85"/>
-      <c r="F75" s="86"/>
-      <c r="G75" s="86"/>
-      <c r="H75" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="I75" s="84" t="s">
+      <c r="E75" s="87"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="I75" s="86" t="s">
         <v>364</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="30">
-      <c r="A76" s="81"/>
-      <c r="B76" s="57" t="s">
+      <c r="A76" s="83"/>
+      <c r="B76" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="C76" s="57" t="s">
+      <c r="C76" s="58" t="s">
         <v>366</v>
       </c>
-      <c r="D76" s="59" t="s">
+      <c r="D76" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="E76" s="60"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I76" s="62"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I76" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="30">
-      <c r="A77" s="81"/>
-      <c r="B77" s="57" t="s">
+      <c r="A77" s="83"/>
+      <c r="B77" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="C77" s="57" t="s">
+      <c r="C77" s="58" t="s">
         <v>368</v>
       </c>
-      <c r="D77" s="59" t="s">
+      <c r="D77" s="60" t="s">
         <v>369</v>
       </c>
-      <c r="E77" s="60"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I77" s="62"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I77" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="30">
-      <c r="A78" s="81"/>
-      <c r="B78" s="57" t="s">
+      <c r="A78" s="83"/>
+      <c r="B78" s="58" t="s">
         <v>370</v>
       </c>
-      <c r="C78" s="57" t="s">
+      <c r="C78" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="D78" s="59" t="s">
+      <c r="D78" s="60" t="s">
         <v>372</v>
       </c>
-      <c r="E78" s="60"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I78" s="62"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I78" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="30">
-      <c r="A79" s="81"/>
-      <c r="B79" s="57" t="s">
+      <c r="A79" s="83"/>
+      <c r="B79" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="C79" s="57" t="s">
+      <c r="C79" s="58" t="s">
         <v>374</v>
       </c>
-      <c r="D79" s="59" t="s">
+      <c r="D79" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="E79" s="60"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I79" s="62"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I79" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="30">
-      <c r="A80" s="81"/>
-      <c r="B80" s="57" t="s">
+      <c r="A80" s="83"/>
+      <c r="B80" s="58" t="s">
         <v>376</v>
       </c>
-      <c r="C80" s="57" t="s">
+      <c r="C80" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="D80" s="59" t="s">
+      <c r="D80" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="E80" s="60"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I80" s="62"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I80" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="30">
-      <c r="A81" s="81"/>
-      <c r="B81" s="57" t="s">
+      <c r="A81" s="83"/>
+      <c r="B81" s="58" t="s">
         <v>379</v>
       </c>
-      <c r="C81" s="57" t="s">
+      <c r="C81" s="58" t="s">
         <v>380</v>
       </c>
-      <c r="D81" s="59" t="s">
+      <c r="D81" s="60" t="s">
         <v>381</v>
       </c>
-      <c r="E81" s="60"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I81" s="62"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I81" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="30">
-      <c r="A82" s="81"/>
-      <c r="B82" s="57" t="s">
+      <c r="A82" s="83"/>
+      <c r="B82" s="58" t="s">
         <v>382</v>
       </c>
-      <c r="C82" s="57" t="s">
+      <c r="C82" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="D82" s="59" t="s">
+      <c r="D82" s="60" t="s">
         <v>384</v>
       </c>
-      <c r="E82" s="60"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I82" s="62"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I82" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="30">
-      <c r="A83" s="81"/>
-      <c r="B83" s="57" t="s">
+      <c r="A83" s="83"/>
+      <c r="B83" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="C83" s="57" t="s">
+      <c r="C83" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="D83" s="59" t="s">
+      <c r="D83" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="E83" s="60"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I83" s="62"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I83" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="30">
-      <c r="A84" s="81"/>
-      <c r="B84" s="57" t="s">
+      <c r="A84" s="83"/>
+      <c r="B84" s="58" t="s">
         <v>388</v>
       </c>
-      <c r="C84" s="57" t="s">
+      <c r="C84" s="58" t="s">
         <v>389</v>
       </c>
-      <c r="D84" s="59" t="s">
+      <c r="D84" s="60" t="s">
         <v>390</v>
       </c>
-      <c r="E84" s="60"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I84" s="62"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I84" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="30">
-      <c r="A85" s="81"/>
-      <c r="B85" s="57" t="s">
+      <c r="A85" s="83"/>
+      <c r="B85" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="C85" s="58" t="s">
         <v>392</v>
       </c>
-      <c r="D85" s="59" t="s">
+      <c r="D85" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="E85" s="60"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I85" s="62"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I85" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="30">
-      <c r="A86" s="81"/>
-      <c r="B86" s="57" t="s">
+      <c r="A86" s="83"/>
+      <c r="B86" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="C86" s="57" t="s">
+      <c r="C86" s="58" t="s">
         <v>395</v>
       </c>
-      <c r="D86" s="59" t="s">
+      <c r="D86" s="60" t="s">
         <v>396</v>
       </c>
-      <c r="E86" s="60"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I86" s="62"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I86" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="30">
-      <c r="A87" s="81"/>
-      <c r="B87" s="59" t="s">
+      <c r="A87" s="83"/>
+      <c r="B87" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="C87" s="57" t="s">
+      <c r="C87" s="58" t="s">
         <v>398</v>
       </c>
-      <c r="D87" s="59" t="s">
+      <c r="D87" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="E87" s="60"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I87" s="62"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I87" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="30">
-      <c r="A88" s="81"/>
-      <c r="B88" s="57" t="s">
+      <c r="A88" s="83"/>
+      <c r="B88" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="C88" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="D88" s="59" t="s">
+      <c r="D88" s="60" t="s">
         <v>402</v>
       </c>
-      <c r="E88" s="60"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I88" s="62"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I88" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="30">
-      <c r="A89" s="81"/>
-      <c r="B89" s="57" t="s">
+      <c r="A89" s="83"/>
+      <c r="B89" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="C89" s="57" t="s">
+      <c r="C89" s="58" t="s">
         <v>404</v>
       </c>
-      <c r="D89" s="59" t="s">
+      <c r="D89" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="E89" s="60"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I89" s="62"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I89" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="30">
-      <c r="A90" s="81"/>
-      <c r="B90" s="57" t="s">
+      <c r="A90" s="83"/>
+      <c r="B90" s="58" t="s">
         <v>406</v>
       </c>
-      <c r="C90" s="57" t="s">
+      <c r="C90" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="D90" s="59" t="s">
+      <c r="D90" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="E90" s="60"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I90" s="62"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I90" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="30">
-      <c r="A91" s="81"/>
-      <c r="B91" s="57" t="s">
+      <c r="A91" s="83"/>
+      <c r="B91" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="C91" s="57" t="s">
+      <c r="C91" s="58" t="s">
         <v>410</v>
       </c>
-      <c r="D91" s="59" t="s">
+      <c r="D91" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="E91" s="60"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I91" s="62"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="62"/>
+      <c r="H91" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I91" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="30">
-      <c r="A92" s="81"/>
-      <c r="B92" s="57" t="s">
+      <c r="A92" s="83"/>
+      <c r="B92" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="C92" s="58" t="s">
         <v>413</v>
       </c>
-      <c r="D92" s="59" t="s">
+      <c r="D92" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="E92" s="60"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I92" s="62"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I92" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="30">
-      <c r="A93" s="81"/>
-      <c r="B93" s="57" t="s">
+      <c r="A93" s="83"/>
+      <c r="B93" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="C93" s="57" t="s">
+      <c r="C93" s="58" t="s">
         <v>416</v>
       </c>
-      <c r="D93" s="59" t="s">
+      <c r="D93" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="E93" s="60"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I93" s="62"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I93" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="30">
-      <c r="A94" s="81"/>
-      <c r="B94" s="57" t="s">
+      <c r="A94" s="83"/>
+      <c r="B94" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="C94" s="57" t="s">
+      <c r="C94" s="58" t="s">
         <v>419</v>
       </c>
-      <c r="D94" s="59" t="s">
+      <c r="D94" s="60" t="s">
         <v>420</v>
       </c>
-      <c r="E94" s="60"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I94" s="62"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I94" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="30">
-      <c r="A95" s="81"/>
-      <c r="B95" s="57" t="s">
+      <c r="A95" s="83"/>
+      <c r="B95" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="C95" s="57" t="s">
+      <c r="C95" s="58" t="s">
         <v>422</v>
       </c>
-      <c r="D95" s="59" t="s">
+      <c r="D95" s="60" t="s">
         <v>423</v>
       </c>
-      <c r="E95" s="60"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I95" s="62"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="62"/>
+      <c r="H95" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I95" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="30">
-      <c r="A96" s="81"/>
-      <c r="B96" s="57" t="s">
+      <c r="A96" s="83"/>
+      <c r="B96" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="C96" s="57" t="s">
+      <c r="C96" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="D96" s="59" t="s">
+      <c r="D96" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="E96" s="60"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="61"/>
-      <c r="H96" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I96" s="62"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I96" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="30">
-      <c r="A97" s="81"/>
-      <c r="B97" s="57" t="s">
+      <c r="A97" s="83"/>
+      <c r="B97" s="58" t="s">
         <v>427</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="C97" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="D97" s="59" t="s">
+      <c r="D97" s="60" t="s">
         <v>429</v>
       </c>
-      <c r="E97" s="60"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I97" s="62"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I97" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="30">
-      <c r="A98" s="81"/>
-      <c r="B98" s="57" t="s">
+      <c r="A98" s="83"/>
+      <c r="B98" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="C98" s="57" t="s">
+      <c r="C98" s="58" t="s">
         <v>431</v>
       </c>
-      <c r="D98" s="59" t="s">
+      <c r="D98" s="60" t="s">
         <v>432</v>
       </c>
-      <c r="E98" s="60"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I98" s="62"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="62"/>
+      <c r="H98" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I98" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="30">
-      <c r="A99" s="81"/>
-      <c r="B99" s="57" t="s">
+      <c r="A99" s="83"/>
+      <c r="B99" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="C99" s="57" t="s">
+      <c r="C99" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="D99" s="59" t="s">
+      <c r="D99" s="60" t="s">
         <v>435</v>
       </c>
-      <c r="E99" s="60"/>
-      <c r="F99" s="61"/>
-      <c r="G99" s="61"/>
-      <c r="H99" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I99" s="62"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I99" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="30">
-      <c r="A100" s="81"/>
-      <c r="B100" s="57" t="s">
+      <c r="A100" s="83"/>
+      <c r="B100" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="C100" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="D100" s="59" t="s">
+      <c r="D100" s="60" t="s">
         <v>438</v>
       </c>
-      <c r="E100" s="60"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I100" s="62"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I100" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="30">
-      <c r="A101" s="82"/>
-      <c r="B101" s="83" t="s">
+      <c r="A101" s="84"/>
+      <c r="B101" s="85" t="s">
         <v>439</v>
       </c>
-      <c r="C101" s="83" t="s">
+      <c r="C101" s="85" t="s">
         <v>440</v>
       </c>
-      <c r="D101" s="84" t="s">
+      <c r="D101" s="86" t="s">
         <v>441</v>
       </c>
-      <c r="E101" s="85"/>
-      <c r="F101" s="86"/>
-      <c r="G101" s="86"/>
-      <c r="H101" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="I101" s="84" t="s">
+      <c r="E101" s="87"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="I101" s="86" t="s">
         <v>442</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="30">
-      <c r="A102" s="81"/>
-      <c r="B102" s="57" t="s">
+      <c r="A102" s="83"/>
+      <c r="B102" s="58" t="s">
         <v>443</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="C102" s="58" t="s">
         <v>444</v>
       </c>
-      <c r="D102" s="59" t="s">
+      <c r="D102" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="E102" s="60"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="61"/>
-      <c r="H102" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I102" s="62"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I102" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="30">
-      <c r="A103" s="82"/>
-      <c r="B103" s="83" t="s">
+      <c r="A103" s="84"/>
+      <c r="B103" s="85" t="s">
         <v>446</v>
       </c>
-      <c r="C103" s="83" t="s">
+      <c r="C103" s="85" t="s">
         <v>447</v>
       </c>
-      <c r="D103" s="84" t="s">
+      <c r="D103" s="86" t="s">
         <v>448</v>
       </c>
-      <c r="E103" s="85"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="I103" s="84" t="s">
+      <c r="E103" s="87"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="88"/>
+      <c r="H103" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="I103" s="86" t="s">
         <v>449</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="30">
-      <c r="A104" s="81"/>
-      <c r="B104" s="57" t="s">
+      <c r="A104" s="83"/>
+      <c r="B104" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="C104" s="57" t="s">
+      <c r="C104" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="D104" s="59" t="s">
+      <c r="D104" s="60" t="s">
         <v>452</v>
       </c>
-      <c r="E104" s="60"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I104" s="62"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="62"/>
+      <c r="H104" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I104" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="30">
-      <c r="A105" s="81"/>
-      <c r="B105" s="57" t="s">
+      <c r="A105" s="83"/>
+      <c r="B105" s="58" t="s">
         <v>453</v>
       </c>
-      <c r="C105" s="57" t="s">
+      <c r="C105" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="D105" s="59" t="s">
+      <c r="D105" s="60" t="s">
         <v>455</v>
       </c>
-      <c r="E105" s="60"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I105" s="62"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I105" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="30">
-      <c r="A106" s="81"/>
-      <c r="B106" s="57" t="s">
+      <c r="A106" s="83"/>
+      <c r="B106" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="C106" s="58" t="s">
         <v>457</v>
       </c>
-      <c r="D106" s="59" t="s">
+      <c r="D106" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="E106" s="60"/>
-      <c r="F106" s="61"/>
-      <c r="G106" s="61"/>
-      <c r="H106" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I106" s="62"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I106" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="30">
-      <c r="A107" s="81"/>
-      <c r="B107" s="57" t="s">
+      <c r="A107" s="83"/>
+      <c r="B107" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="C107" s="57" t="s">
+      <c r="C107" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="D107" s="59" t="s">
+      <c r="D107" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="E107" s="60"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="61"/>
-      <c r="H107" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I107" s="62"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I107" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="30">
-      <c r="A108" s="81"/>
-      <c r="B108" s="57" t="s">
+      <c r="A108" s="83"/>
+      <c r="B108" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="C108" s="57" t="s">
+      <c r="C108" s="58" t="s">
         <v>463</v>
       </c>
-      <c r="D108" s="59" t="s">
+      <c r="D108" s="60" t="s">
         <v>464</v>
       </c>
-      <c r="E108" s="60"/>
-      <c r="F108" s="61"/>
-      <c r="G108" s="61"/>
-      <c r="H108" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I108" s="62"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I108" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="30">
-      <c r="A109" s="81"/>
-      <c r="B109" s="57" t="s">
+      <c r="A109" s="83"/>
+      <c r="B109" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="C109" s="57" t="s">
+      <c r="C109" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="D109" s="59" t="s">
+      <c r="D109" s="60" t="s">
         <v>467</v>
       </c>
-      <c r="E109" s="60"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I109" s="62"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I109" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="30">
-      <c r="A110" s="81"/>
-      <c r="B110" s="57" t="s">
+      <c r="A110" s="83"/>
+      <c r="B110" s="58" t="s">
         <v>468</v>
       </c>
-      <c r="C110" s="57" t="s">
+      <c r="C110" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="D110" s="59" t="s">
+      <c r="D110" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="E110" s="60"/>
-      <c r="F110" s="61"/>
-      <c r="G110" s="61"/>
-      <c r="H110" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I110" s="62"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I110" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="30">
-      <c r="A111" s="81"/>
-      <c r="B111" s="57" t="s">
+      <c r="A111" s="83"/>
+      <c r="B111" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="C111" s="57" t="s">
+      <c r="C111" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="D111" s="59" t="s">
+      <c r="D111" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="E111" s="60"/>
-      <c r="F111" s="61"/>
-      <c r="G111" s="61"/>
-      <c r="H111" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I111" s="62"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I111" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="30">
-      <c r="A112" s="81"/>
-      <c r="B112" s="57" t="s">
+      <c r="A112" s="83"/>
+      <c r="B112" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="C112" s="57" t="s">
+      <c r="C112" s="58" t="s">
         <v>475</v>
       </c>
-      <c r="D112" s="59" t="s">
+      <c r="D112" s="60" t="s">
         <v>476</v>
       </c>
-      <c r="E112" s="60"/>
-      <c r="F112" s="61"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I112" s="62"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I112" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="30">
-      <c r="A113" s="81"/>
-      <c r="B113" s="57" t="s">
+      <c r="A113" s="83"/>
+      <c r="B113" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="C113" s="57" t="s">
+      <c r="C113" s="58" t="s">
         <v>478</v>
       </c>
-      <c r="D113" s="59" t="s">
+      <c r="D113" s="60" t="s">
         <v>479</v>
       </c>
-      <c r="E113" s="60"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="61"/>
-      <c r="H113" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I113" s="62"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I113" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="30">
-      <c r="A114" s="81"/>
-      <c r="B114" s="57" t="s">
+      <c r="A114" s="83"/>
+      <c r="B114" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="C114" s="57" t="s">
+      <c r="C114" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="D114" s="59" t="s">
+      <c r="D114" s="60" t="s">
         <v>482</v>
       </c>
-      <c r="E114" s="60"/>
-      <c r="F114" s="61"/>
-      <c r="G114" s="61"/>
-      <c r="H114" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I114" s="62"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="62"/>
+      <c r="H114" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I114" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="30">
-      <c r="A115" s="81"/>
-      <c r="B115" s="57" t="s">
+      <c r="A115" s="83"/>
+      <c r="B115" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="C115" s="57" t="s">
+      <c r="C115" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="D115" s="59" t="s">
+      <c r="D115" s="60" t="s">
         <v>485</v>
       </c>
-      <c r="E115" s="60"/>
-      <c r="F115" s="61"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I115" s="62"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I115" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="30">
-      <c r="A116" s="81"/>
-      <c r="B116" s="57" t="s">
+      <c r="A116" s="83"/>
+      <c r="B116" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="C116" s="57" t="s">
+      <c r="C116" s="58" t="s">
         <v>487</v>
       </c>
-      <c r="D116" s="59" t="s">
+      <c r="D116" s="60" t="s">
         <v>488</v>
       </c>
-      <c r="E116" s="60"/>
-      <c r="F116" s="61"/>
-      <c r="G116" s="61"/>
-      <c r="H116" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I116" s="62"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="62"/>
+      <c r="H116" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I116" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="30">
-      <c r="A117" s="81"/>
-      <c r="B117" s="57" t="s">
+      <c r="A117" s="83"/>
+      <c r="B117" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="C117" s="57" t="s">
+      <c r="C117" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="D117" s="59" t="s">
+      <c r="D117" s="60" t="s">
         <v>491</v>
       </c>
-      <c r="E117" s="60"/>
-      <c r="F117" s="61"/>
-      <c r="G117" s="61"/>
-      <c r="H117" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I117" s="62"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="62"/>
+      <c r="H117" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I117" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="30">
-      <c r="A118" s="81"/>
-      <c r="B118" s="57" t="s">
+      <c r="A118" s="83"/>
+      <c r="B118" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="C118" s="57" t="s">
+      <c r="C118" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="D118" s="59" t="s">
+      <c r="D118" s="60" t="s">
         <v>494</v>
       </c>
-      <c r="E118" s="60"/>
-      <c r="F118" s="61"/>
-      <c r="G118" s="61"/>
-      <c r="H118" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I118" s="62"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="62"/>
+      <c r="G118" s="62"/>
+      <c r="H118" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I118" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="30">
-      <c r="A119" s="81"/>
-      <c r="B119" s="57" t="s">
+      <c r="A119" s="83"/>
+      <c r="B119" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="C119" s="57" t="s">
+      <c r="C119" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="D119" s="59" t="s">
+      <c r="D119" s="60" t="s">
         <v>497</v>
       </c>
-      <c r="E119" s="60"/>
-      <c r="F119" s="61"/>
-      <c r="G119" s="61"/>
-      <c r="H119" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I119" s="62"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I119" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="30">
-      <c r="A120" s="81"/>
-      <c r="B120" s="57" t="s">
+      <c r="A120" s="83"/>
+      <c r="B120" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="C120" s="57" t="s">
+      <c r="C120" s="58" t="s">
         <v>499</v>
       </c>
-      <c r="D120" s="59" t="s">
+      <c r="D120" s="60" t="s">
         <v>500</v>
       </c>
-      <c r="E120" s="60"/>
-      <c r="F120" s="61"/>
-      <c r="G120" s="61"/>
-      <c r="H120" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I120" s="62"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="62"/>
+      <c r="G120" s="62"/>
+      <c r="H120" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I120" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="30">
-      <c r="A121" s="81"/>
-      <c r="B121" s="57" t="s">
+      <c r="A121" s="83"/>
+      <c r="B121" s="58" t="s">
         <v>501</v>
       </c>
-      <c r="C121" s="57" t="s">
+      <c r="C121" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="D121" s="59" t="s">
+      <c r="D121" s="60" t="s">
         <v>503</v>
       </c>
-      <c r="E121" s="60"/>
-      <c r="F121" s="61"/>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I121" s="62"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="62"/>
+      <c r="G121" s="62"/>
+      <c r="H121" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I121" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="30">
-      <c r="A122" s="81"/>
-      <c r="B122" s="57" t="s">
+      <c r="A122" s="83"/>
+      <c r="B122" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="C122" s="57" t="s">
+      <c r="C122" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="D122" s="59" t="s">
+      <c r="D122" s="60" t="s">
         <v>506</v>
       </c>
-      <c r="E122" s="60"/>
-      <c r="F122" s="61"/>
-      <c r="G122" s="61"/>
-      <c r="H122" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I122" s="62"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="62"/>
+      <c r="G122" s="62"/>
+      <c r="H122" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I122" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="30">
-      <c r="A123" s="81"/>
-      <c r="B123" s="57" t="s">
+      <c r="A123" s="83"/>
+      <c r="B123" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="C123" s="57" t="s">
+      <c r="C123" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="D123" s="59" t="s">
+      <c r="D123" s="60" t="s">
         <v>509</v>
       </c>
-      <c r="E123" s="60"/>
-      <c r="F123" s="61"/>
-      <c r="G123" s="61"/>
-      <c r="H123" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I123" s="62"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="62"/>
+      <c r="G123" s="62"/>
+      <c r="H123" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I123" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="30">
-      <c r="A124" s="81"/>
-      <c r="B124" s="59" t="s">
+      <c r="A124" s="83"/>
+      <c r="B124" s="60" t="s">
         <v>510</v>
       </c>
-      <c r="C124" s="57" t="s">
+      <c r="C124" s="58" t="s">
         <v>511</v>
       </c>
-      <c r="D124" s="59" t="s">
+      <c r="D124" s="60" t="s">
         <v>512</v>
       </c>
-      <c r="E124" s="60"/>
-      <c r="F124" s="61"/>
-      <c r="G124" s="61"/>
-      <c r="H124" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I124" s="62"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="62"/>
+      <c r="G124" s="62"/>
+      <c r="H124" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I124" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="30">
-      <c r="A125" s="81"/>
-      <c r="B125" s="57" t="s">
+      <c r="A125" s="83"/>
+      <c r="B125" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="C125" s="57" t="s">
+      <c r="C125" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="D125" s="59" t="s">
+      <c r="D125" s="60" t="s">
         <v>515</v>
       </c>
-      <c r="E125" s="60"/>
-      <c r="F125" s="61"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I125" s="62"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="62"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I125" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="30">
-      <c r="A126" s="81"/>
-      <c r="B126" s="57" t="s">
+      <c r="A126" s="83"/>
+      <c r="B126" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="C126" s="57" t="s">
+      <c r="C126" s="58" t="s">
         <v>517</v>
       </c>
-      <c r="D126" s="59" t="s">
+      <c r="D126" s="60" t="s">
         <v>518</v>
       </c>
-      <c r="E126" s="60"/>
-      <c r="F126" s="61"/>
-      <c r="G126" s="61"/>
-      <c r="H126" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I126" s="62"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="62"/>
+      <c r="G126" s="62"/>
+      <c r="H126" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I126" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="30">
-      <c r="A127" s="81"/>
-      <c r="B127" s="57" t="s">
+      <c r="A127" s="83"/>
+      <c r="B127" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="C127" s="57" t="s">
+      <c r="C127" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="D127" s="59" t="s">
+      <c r="D127" s="60" t="s">
         <v>521</v>
       </c>
-      <c r="E127" s="60"/>
-      <c r="F127" s="61"/>
-      <c r="G127" s="61"/>
-      <c r="H127" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I127" s="62"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="62"/>
+      <c r="G127" s="62"/>
+      <c r="H127" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I127" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="30">
-      <c r="A128" s="81"/>
-      <c r="B128" s="57" t="s">
+      <c r="A128" s="83"/>
+      <c r="B128" s="58" t="s">
         <v>522</v>
       </c>
-      <c r="C128" s="57" t="s">
+      <c r="C128" s="58" t="s">
         <v>523</v>
       </c>
-      <c r="D128" s="59" t="s">
+      <c r="D128" s="60" t="s">
         <v>524</v>
       </c>
-      <c r="E128" s="60"/>
-      <c r="F128" s="61"/>
-      <c r="G128" s="61"/>
-      <c r="H128" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I128" s="62"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="62"/>
+      <c r="G128" s="62"/>
+      <c r="H128" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I128" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="30">
-      <c r="A129" s="81"/>
-      <c r="B129" s="57" t="s">
+      <c r="A129" s="83"/>
+      <c r="B129" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="C129" s="57" t="s">
+      <c r="C129" s="58" t="s">
         <v>526</v>
       </c>
-      <c r="D129" s="59" t="s">
+      <c r="D129" s="60" t="s">
         <v>527</v>
       </c>
-      <c r="E129" s="60"/>
-      <c r="F129" s="61"/>
-      <c r="G129" s="61"/>
-      <c r="H129" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I129" s="62"/>
+      <c r="E129" s="61"/>
+      <c r="F129" s="62"/>
+      <c r="G129" s="62"/>
+      <c r="H129" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I129" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="30">
-      <c r="A130" s="81"/>
-      <c r="B130" s="57" t="s">
+      <c r="A130" s="83"/>
+      <c r="B130" s="58" t="s">
         <v>528</v>
       </c>
-      <c r="C130" s="57" t="s">
+      <c r="C130" s="58" t="s">
         <v>529</v>
       </c>
-      <c r="D130" s="59" t="s">
+      <c r="D130" s="60" t="s">
         <v>530</v>
       </c>
-      <c r="E130" s="60"/>
-      <c r="F130" s="61"/>
-      <c r="G130" s="61"/>
-      <c r="H130" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I130" s="62"/>
+      <c r="E130" s="61"/>
+      <c r="F130" s="62"/>
+      <c r="G130" s="62"/>
+      <c r="H130" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I130" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="30">
-      <c r="A131" s="81"/>
-      <c r="B131" s="57" t="s">
+      <c r="A131" s="83"/>
+      <c r="B131" s="58" t="s">
         <v>531</v>
       </c>
-      <c r="C131" s="57" t="s">
+      <c r="C131" s="58" t="s">
         <v>532</v>
       </c>
-      <c r="D131" s="59" t="s">
+      <c r="D131" s="60" t="s">
         <v>533</v>
       </c>
-      <c r="E131" s="60"/>
-      <c r="F131" s="61"/>
-      <c r="G131" s="61"/>
-      <c r="H131" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I131" s="62"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="62"/>
+      <c r="G131" s="62"/>
+      <c r="H131" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I131" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="30">
-      <c r="A132" s="81"/>
-      <c r="B132" s="57" t="s">
+      <c r="A132" s="83"/>
+      <c r="B132" s="58" t="s">
         <v>528</v>
       </c>
-      <c r="C132" s="57" t="s">
+      <c r="C132" s="58" t="s">
         <v>534</v>
       </c>
-      <c r="D132" s="59" t="s">
+      <c r="D132" s="60" t="s">
         <v>530</v>
       </c>
-      <c r="E132" s="60"/>
-      <c r="F132" s="61"/>
-      <c r="G132" s="61"/>
-      <c r="H132" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I132" s="62"/>
+      <c r="E132" s="61"/>
+      <c r="F132" s="62"/>
+      <c r="G132" s="62"/>
+      <c r="H132" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I132" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="30">
-      <c r="A133" s="81"/>
-      <c r="B133" s="57" t="s">
+      <c r="A133" s="83"/>
+      <c r="B133" s="58" t="s">
         <v>535</v>
       </c>
-      <c r="C133" s="57" t="s">
+      <c r="C133" s="58" t="s">
         <v>536</v>
       </c>
-      <c r="D133" s="59" t="s">
+      <c r="D133" s="60" t="s">
         <v>537</v>
       </c>
-      <c r="E133" s="60"/>
-      <c r="F133" s="61"/>
-      <c r="G133" s="61"/>
-      <c r="H133" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I133" s="62"/>
+      <c r="E133" s="61"/>
+      <c r="F133" s="62"/>
+      <c r="G133" s="62"/>
+      <c r="H133" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I133" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="30">
-      <c r="A134" s="81"/>
-      <c r="B134" s="57" t="s">
+      <c r="A134" s="83"/>
+      <c r="B134" s="58" t="s">
         <v>538</v>
       </c>
-      <c r="C134" s="57" t="s">
+      <c r="C134" s="58" t="s">
         <v>539</v>
       </c>
-      <c r="D134" s="59" t="s">
+      <c r="D134" s="60" t="s">
         <v>540</v>
       </c>
-      <c r="E134" s="60"/>
-      <c r="F134" s="61"/>
-      <c r="G134" s="61"/>
-      <c r="H134" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I134" s="62"/>
+      <c r="E134" s="61"/>
+      <c r="F134" s="62"/>
+      <c r="G134" s="62"/>
+      <c r="H134" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I134" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="30">
-      <c r="A135" s="81"/>
-      <c r="B135" s="57" t="s">
+      <c r="A135" s="83"/>
+      <c r="B135" s="58" t="s">
         <v>541</v>
       </c>
-      <c r="C135" s="57" t="s">
+      <c r="C135" s="58" t="s">
         <v>542</v>
       </c>
-      <c r="D135" s="59" t="s">
+      <c r="D135" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="E135" s="60"/>
-      <c r="F135" s="61"/>
-      <c r="G135" s="61"/>
-      <c r="H135" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I135" s="62"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="62"/>
+      <c r="G135" s="62"/>
+      <c r="H135" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I135" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="30">
-      <c r="A136" s="81"/>
-      <c r="B136" s="57" t="s">
+      <c r="A136" s="83"/>
+      <c r="B136" s="58" t="s">
         <v>544</v>
       </c>
-      <c r="C136" s="57" t="s">
+      <c r="C136" s="58" t="s">
         <v>545</v>
       </c>
-      <c r="D136" s="59" t="s">
+      <c r="D136" s="60" t="s">
         <v>546</v>
       </c>
-      <c r="E136" s="60"/>
-      <c r="F136" s="61"/>
-      <c r="G136" s="61"/>
-      <c r="H136" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I136" s="62"/>
+      <c r="E136" s="61"/>
+      <c r="F136" s="62"/>
+      <c r="G136" s="62"/>
+      <c r="H136" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I136" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="30">
-      <c r="A137" s="81"/>
-      <c r="B137" s="57" t="s">
+      <c r="A137" s="83"/>
+      <c r="B137" s="58" t="s">
         <v>528</v>
       </c>
-      <c r="C137" s="57" t="s">
+      <c r="C137" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="D137" s="59" t="s">
+      <c r="D137" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="E137" s="60"/>
-      <c r="F137" s="61"/>
-      <c r="G137" s="61"/>
-      <c r="H137" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I137" s="62"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="62"/>
+      <c r="G137" s="62"/>
+      <c r="H137" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I137" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="30">
-      <c r="A138" s="81"/>
-      <c r="B138" s="57" t="s">
+      <c r="A138" s="83"/>
+      <c r="B138" s="58" t="s">
         <v>549</v>
       </c>
-      <c r="C138" s="57" t="s">
+      <c r="C138" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="D138" s="59" t="s">
+      <c r="D138" s="60" t="s">
         <v>551</v>
       </c>
-      <c r="E138" s="60"/>
-      <c r="F138" s="61"/>
-      <c r="G138" s="61"/>
-      <c r="H138" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I138" s="62"/>
+      <c r="E138" s="61"/>
+      <c r="F138" s="62"/>
+      <c r="G138" s="62"/>
+      <c r="H138" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I138" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="30">
-      <c r="A139" s="81"/>
-      <c r="B139" s="57" t="s">
+      <c r="A139" s="83"/>
+      <c r="B139" s="58" t="s">
         <v>552</v>
       </c>
-      <c r="C139" s="57" t="s">
+      <c r="C139" s="58" t="s">
         <v>553</v>
       </c>
-      <c r="D139" s="59" t="s">
+      <c r="D139" s="60" t="s">
         <v>554</v>
       </c>
-      <c r="E139" s="60"/>
-      <c r="F139" s="61"/>
-      <c r="G139" s="61"/>
-      <c r="H139" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I139" s="62"/>
+      <c r="E139" s="61"/>
+      <c r="F139" s="62"/>
+      <c r="G139" s="62"/>
+      <c r="H139" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I139" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="30">
-      <c r="A140" s="81"/>
-      <c r="B140" s="57" t="s">
+      <c r="A140" s="83"/>
+      <c r="B140" s="58" t="s">
         <v>555</v>
       </c>
-      <c r="C140" s="57" t="s">
+      <c r="C140" s="58" t="s">
         <v>556</v>
       </c>
-      <c r="D140" s="59" t="s">
+      <c r="D140" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="E140" s="60"/>
-      <c r="F140" s="61"/>
-      <c r="G140" s="61"/>
-      <c r="H140" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I140" s="62"/>
+      <c r="E140" s="61"/>
+      <c r="F140" s="62"/>
+      <c r="G140" s="62"/>
+      <c r="H140" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I140" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="30">
-      <c r="A141" s="81"/>
-      <c r="B141" s="57" t="s">
+      <c r="A141" s="83"/>
+      <c r="B141" s="58" t="s">
         <v>558</v>
       </c>
-      <c r="C141" s="57" t="s">
+      <c r="C141" s="58" t="s">
         <v>559</v>
       </c>
-      <c r="D141" s="59" t="s">
+      <c r="D141" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="E141" s="60"/>
-      <c r="F141" s="61"/>
-      <c r="G141" s="61"/>
-      <c r="H141" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I141" s="62"/>
+      <c r="E141" s="61"/>
+      <c r="F141" s="62"/>
+      <c r="G141" s="62"/>
+      <c r="H141" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I141" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="30">
-      <c r="A142" s="81"/>
-      <c r="B142" s="57" t="s">
+      <c r="A142" s="83"/>
+      <c r="B142" s="58" t="s">
         <v>561</v>
       </c>
-      <c r="C142" s="57" t="s">
+      <c r="C142" s="58" t="s">
         <v>562</v>
       </c>
-      <c r="D142" s="59" t="s">
+      <c r="D142" s="60" t="s">
         <v>563</v>
       </c>
-      <c r="E142" s="60"/>
-      <c r="F142" s="61"/>
-      <c r="G142" s="61"/>
-      <c r="H142" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I142" s="62"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="62"/>
+      <c r="H142" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I142" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="30">
-      <c r="A143" s="81"/>
-      <c r="B143" s="57" t="s">
+      <c r="A143" s="83"/>
+      <c r="B143" s="58" t="s">
         <v>564</v>
       </c>
-      <c r="C143" s="57" t="s">
+      <c r="C143" s="58" t="s">
         <v>565</v>
       </c>
-      <c r="D143" s="59" t="s">
+      <c r="D143" s="60" t="s">
         <v>566</v>
       </c>
-      <c r="E143" s="60"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I143" s="62"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="62"/>
+      <c r="H143" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I143" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="30">
-      <c r="A144" s="81"/>
-      <c r="B144" s="57" t="s">
+      <c r="A144" s="83"/>
+      <c r="B144" s="58" t="s">
         <v>567</v>
       </c>
-      <c r="C144" s="57" t="s">
+      <c r="C144" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="D144" s="59" t="s">
+      <c r="D144" s="60" t="s">
         <v>569</v>
       </c>
-      <c r="E144" s="60"/>
-      <c r="F144" s="61"/>
-      <c r="G144" s="61"/>
-      <c r="H144" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I144" s="62"/>
+      <c r="E144" s="61"/>
+      <c r="F144" s="62"/>
+      <c r="G144" s="62"/>
+      <c r="H144" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I144" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="30">
-      <c r="A145" s="81"/>
-      <c r="B145" s="57" t="s">
+      <c r="A145" s="83"/>
+      <c r="B145" s="58" t="s">
         <v>570</v>
       </c>
-      <c r="C145" s="57" t="s">
+      <c r="C145" s="58" t="s">
         <v>571</v>
       </c>
-      <c r="D145" s="59" t="s">
+      <c r="D145" s="60" t="s">
         <v>572</v>
       </c>
-      <c r="E145" s="60"/>
-      <c r="F145" s="61"/>
-      <c r="G145" s="61"/>
-      <c r="H145" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I145" s="62"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="62"/>
+      <c r="G145" s="62"/>
+      <c r="H145" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I145" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="30">
-      <c r="A146" s="81"/>
-      <c r="B146" s="57" t="s">
+      <c r="A146" s="83"/>
+      <c r="B146" s="58" t="s">
         <v>573</v>
       </c>
-      <c r="C146" s="57" t="s">
+      <c r="C146" s="58" t="s">
         <v>574</v>
       </c>
-      <c r="D146" s="59" t="s">
+      <c r="D146" s="60" t="s">
         <v>575</v>
       </c>
-      <c r="E146" s="60"/>
-      <c r="F146" s="61"/>
-      <c r="G146" s="61"/>
-      <c r="H146" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I146" s="62"/>
+      <c r="E146" s="61"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="62"/>
+      <c r="H146" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I146" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="30">
-      <c r="A147" s="81"/>
-      <c r="B147" s="57" t="s">
+      <c r="A147" s="83"/>
+      <c r="B147" s="58" t="s">
         <v>576</v>
       </c>
-      <c r="C147" s="57" t="s">
+      <c r="C147" s="58" t="s">
         <v>577</v>
       </c>
-      <c r="D147" s="59" t="s">
+      <c r="D147" s="60" t="s">
         <v>578</v>
       </c>
-      <c r="E147" s="60"/>
-      <c r="F147" s="61"/>
-      <c r="G147" s="61"/>
-      <c r="H147" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I147" s="62"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="62"/>
+      <c r="G147" s="62"/>
+      <c r="H147" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I147" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="30">
-      <c r="A148" s="81"/>
-      <c r="B148" s="57" t="s">
+      <c r="A148" s="83"/>
+      <c r="B148" s="58" t="s">
         <v>579</v>
       </c>
-      <c r="C148" s="57" t="s">
+      <c r="C148" s="58" t="s">
         <v>580</v>
       </c>
-      <c r="D148" s="59" t="s">
+      <c r="D148" s="60" t="s">
         <v>581</v>
       </c>
-      <c r="E148" s="60"/>
-      <c r="F148" s="61"/>
-      <c r="G148" s="61"/>
-      <c r="H148" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I148" s="62"/>
+      <c r="E148" s="61"/>
+      <c r="F148" s="62"/>
+      <c r="G148" s="62"/>
+      <c r="H148" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I148" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="30">
-      <c r="A149" s="81"/>
-      <c r="B149" s="57" t="s">
+      <c r="A149" s="83"/>
+      <c r="B149" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="C149" s="57" t="s">
+      <c r="C149" s="58" t="s">
         <v>583</v>
       </c>
-      <c r="D149" s="59" t="s">
+      <c r="D149" s="60" t="s">
         <v>584</v>
       </c>
-      <c r="E149" s="60"/>
-      <c r="F149" s="61"/>
-      <c r="G149" s="61"/>
-      <c r="H149" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I149" s="62"/>
+      <c r="E149" s="61"/>
+      <c r="F149" s="62"/>
+      <c r="G149" s="62"/>
+      <c r="H149" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I149" s="63"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="30">
-      <c r="A150" s="81"/>
-      <c r="B150" s="57" t="s">
+      <c r="A150" s="83"/>
+      <c r="B150" s="58" t="s">
         <v>585</v>
       </c>
-      <c r="C150" s="57" t="s">
+      <c r="C150" s="58" t="s">
         <v>586</v>
       </c>
-      <c r="D150" s="59" t="s">
+      <c r="D150" s="60" t="s">
         <v>587</v>
       </c>
-      <c r="E150" s="60"/>
-      <c r="F150" s="61"/>
-      <c r="G150" s="61"/>
-      <c r="H150" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I150" s="62"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="62"/>
+      <c r="G150" s="62"/>
+      <c r="H150" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I150" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6077,17 +6083,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="56.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="49" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="49" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="51.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="63.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="2" width="51.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="2" width="53.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="50" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="50" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="50" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="50" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="50" width="56.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="51" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="51" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="50" width="51.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="50" width="63.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="50" width="51.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="50" width="53.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -6206,7 +6212,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="26"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="22"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -7230,117 +7236,117 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="46"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="46"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="46"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="47">
